--- a/natmiOut/YoungD0/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>298.156108364359</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H2">
-        <v>298.156108364359</v>
+        <v>967.205948</v>
       </c>
       <c r="I2">
-        <v>0.7841985710962751</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J2">
-        <v>0.7841985710962751</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.20304305489444</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N2">
-        <v>4.20304305489444</v>
+        <v>6.539315</v>
       </c>
       <c r="O2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q2">
-        <v>1253.162960535173</v>
+        <v>702.7627070939579</v>
       </c>
       <c r="R2">
-        <v>1253.162960535173</v>
+        <v>6324.864363845621</v>
       </c>
       <c r="S2">
-        <v>0.4714291806673178</v>
+        <v>0.1869283403678476</v>
       </c>
       <c r="T2">
-        <v>0.4714291806673178</v>
+        <v>0.1869283403678476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>298.156108364359</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H3">
-        <v>298.156108364359</v>
+        <v>967.205948</v>
       </c>
       <c r="I3">
-        <v>0.7841985710962751</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J3">
-        <v>0.7841985710962751</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.78850624470292</v>
+        <v>4.237801</v>
       </c>
       <c r="N3">
-        <v>2.78850624470292</v>
+        <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q3">
-        <v>831.4101700703357</v>
+        <v>1366.275444546783</v>
       </c>
       <c r="R3">
-        <v>831.4101700703357</v>
+        <v>12296.47900092105</v>
       </c>
       <c r="S3">
-        <v>0.3127693904289574</v>
+        <v>0.3634165540607256</v>
       </c>
       <c r="T3">
-        <v>0.3127693904289574</v>
+        <v>0.3634165540607257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.5681541443403</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H4">
-        <v>57.5681541443403</v>
+        <v>967.205948</v>
       </c>
       <c r="I4">
-        <v>0.151413514444832</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J4">
-        <v>0.151413514444832</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.20304305489444</v>
+        <v>2.860789</v>
       </c>
       <c r="N4">
-        <v>4.20304305489444</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q4">
-        <v>241.9614304594621</v>
+        <v>922.3240455909909</v>
       </c>
       <c r="R4">
-        <v>241.9614304594621</v>
+        <v>8300.916410318918</v>
       </c>
       <c r="S4">
-        <v>0.09102381933302822</v>
+        <v>0.2453296132297929</v>
       </c>
       <c r="T4">
-        <v>0.09102381933302822</v>
+        <v>0.2453296132297929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.5681541443403</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H5">
-        <v>57.5681541443403</v>
+        <v>173.074559</v>
       </c>
       <c r="I5">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J5">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.78850624470292</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N5">
-        <v>2.78850624470292</v>
+        <v>6.539315</v>
       </c>
       <c r="O5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q5">
-        <v>160.5291573275132</v>
+        <v>125.7543399763428</v>
       </c>
       <c r="R5">
-        <v>160.5291573275132</v>
+        <v>1131.789059787085</v>
       </c>
       <c r="S5">
-        <v>0.06038969511180377</v>
+        <v>0.03344948419792711</v>
       </c>
       <c r="T5">
-        <v>0.06038969511180377</v>
+        <v>0.03344948419792711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.480598037718</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H6">
-        <v>24.480598037718</v>
+        <v>173.074559</v>
       </c>
       <c r="I6">
-        <v>0.06438791445889284</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J6">
-        <v>0.06438791445889284</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.20304305489444</v>
+        <v>4.237801</v>
       </c>
       <c r="N6">
-        <v>4.20304305489444</v>
+        <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q6">
-        <v>102.8930075620931</v>
+        <v>244.4851797349197</v>
       </c>
       <c r="R6">
-        <v>102.8930075620931</v>
+        <v>2200.366617614277</v>
       </c>
       <c r="S6">
-        <v>0.03870746884401888</v>
+        <v>0.06503078269671657</v>
       </c>
       <c r="T6">
-        <v>0.03870746884401888</v>
+        <v>0.06503078269671658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.480598037718</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H7">
-        <v>24.480598037718</v>
+        <v>173.074559</v>
       </c>
       <c r="I7">
-        <v>0.06438791445889284</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J7">
-        <v>0.06438791445889284</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78850624470292</v>
+        <v>2.860789</v>
       </c>
       <c r="N7">
-        <v>2.78850624470292</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q7">
-        <v>68.2643005022387</v>
+        <v>165.0432648556837</v>
       </c>
       <c r="R7">
-        <v>68.2643005022387</v>
+        <v>1485.389383701153</v>
       </c>
       <c r="S7">
-        <v>0.02568044561487396</v>
+        <v>0.04389997260375302</v>
       </c>
       <c r="T7">
-        <v>0.02568044561487396</v>
+        <v>0.04389997260375302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>25.09980166666667</v>
+      </c>
+      <c r="H8">
+        <v>75.29940500000001</v>
+      </c>
+      <c r="I8">
+        <v>0.06194525284323717</v>
+      </c>
+      <c r="J8">
+        <v>0.06194525284323719</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.179771666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.539315</v>
+      </c>
+      <c r="O8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="P8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="Q8">
+        <v>54.71183651195279</v>
+      </c>
+      <c r="R8">
+        <v>492.4065286075751</v>
+      </c>
+      <c r="S8">
+        <v>0.01455283937866809</v>
+      </c>
+      <c r="T8">
+        <v>0.01455283937866809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>25.09980166666667</v>
+      </c>
+      <c r="H9">
+        <v>75.29940500000001</v>
+      </c>
+      <c r="I9">
+        <v>0.06194525284323717</v>
+      </c>
+      <c r="J9">
+        <v>0.06194525284323719</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237801</v>
+      </c>
+      <c r="N9">
+        <v>12.713403</v>
+      </c>
+      <c r="O9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="P9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="Q9">
+        <v>106.3679646028017</v>
+      </c>
+      <c r="R9">
+        <v>957.3116814252152</v>
+      </c>
+      <c r="S9">
+        <v>0.02829288875291633</v>
+      </c>
+      <c r="T9">
+        <v>0.02829288875291634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>25.09980166666667</v>
+      </c>
+      <c r="H10">
+        <v>75.29940500000001</v>
+      </c>
+      <c r="I10">
+        <v>0.06194525284323717</v>
+      </c>
+      <c r="J10">
+        <v>0.06194525284323719</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.860789</v>
+      </c>
+      <c r="N10">
+        <v>8.582367000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3083291105451987</v>
+      </c>
+      <c r="P10">
+        <v>0.3083291105451986</v>
+      </c>
+      <c r="Q10">
+        <v>71.80523651018169</v>
+      </c>
+      <c r="R10">
+        <v>646.2471285916351</v>
+      </c>
+      <c r="S10">
+        <v>0.01909952471165276</v>
+      </c>
+      <c r="T10">
+        <v>0.01909952471165276</v>
       </c>
     </row>
   </sheetData>
